--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_11.13.19.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_11.13.19.xlsx
@@ -1,96 +1,133 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="19">
   <si>
-    <t>rnaDate</t>
-  </si>
-  <si>
-    <t>rnaPreparer</t>
-  </si>
-  <si>
-    <t>rnaSampleNumber</t>
-  </si>
-  <si>
-    <t>s1cDNADate</t>
-  </si>
-  <si>
-    <t>s1cDNAPreparer</t>
-  </si>
-  <si>
-    <t>s1cDNASampleNumber</t>
-  </si>
-  <si>
-    <t>polyAIsolationProtocol</t>
-  </si>
-  <si>
-    <t>s1Protocol</t>
-  </si>
-  <si>
-    <t>roboticS1Prep</t>
-  </si>
-  <si>
-    <t>s1PrimerSeq</t>
-  </si>
-  <si>
-    <t>10.23.19</t>
-  </si>
-  <si>
-    <t>A.BOODRAM</t>
-  </si>
-  <si>
-    <t>11.13.19</t>
-  </si>
-  <si>
-    <t>J.PLAGGENBERG</t>
-  </si>
-  <si>
-    <t>NEBNextPoly(A)E7490</t>
-  </si>
-  <si>
-    <t>E7760</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>random</t>
-  </si>
-  <si>
-    <t>10.28.19</t>
+    <t xml:space="preserve">rnaDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rnaPreparer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rnaSampleNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1cDNADate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1cDNAPreparer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1cDNASampleNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polyAIsolationProtocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1Protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roboticS1Prep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1PrimerSeq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.23.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.BOODRAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.13.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J.PLAGGENBERG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEBNextPoly(A)E7490</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E7420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">random</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.28.19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="7">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,251 +135,89 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
-  <a:themeElements>
-    <a:clrScheme name="Sheets">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4285F4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="EA4335"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="FBBC04"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="34A853"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="FF6D01"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="46BDC6"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="1155CC"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="1155CC"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Sheets">
-      <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6:H41"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -390,24 +265,24 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3">
-        <v>41.0</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3">
-        <v>41.0</v>
+      <c r="F2" s="3" t="n">
+        <v>41</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>14</v>
@@ -438,24 +313,24 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3">
-        <v>42.0</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3">
-        <v>42.0</v>
+      <c r="F3" s="3" t="n">
+        <v>42</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>14</v>
@@ -470,24 +345,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3">
-        <v>43.0</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3">
-        <v>43.0</v>
+      <c r="F4" s="3" t="n">
+        <v>43</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>14</v>
@@ -502,24 +377,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3">
-        <v>44.0</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="3">
-        <v>44.0</v>
+      <c r="F5" s="3" t="n">
+        <v>44</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>14</v>
@@ -534,24 +409,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3">
-        <v>45.0</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="3">
-        <v>45.0</v>
+      <c r="F6" s="3" t="n">
+        <v>45</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>14</v>
@@ -566,24 +441,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3">
-        <v>46.0</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="3" t="n">
+        <v>46</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="3">
-        <v>46.0</v>
+      <c r="F7" s="3" t="n">
+        <v>46</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>14</v>
@@ -598,24 +473,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3">
-        <v>47.0</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="3">
-        <v>47.0</v>
+      <c r="F8" s="3" t="n">
+        <v>47</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>14</v>
@@ -630,24 +505,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="3">
-        <v>48.0</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="3">
-        <v>48.0</v>
+      <c r="F9" s="3" t="n">
+        <v>48</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>14</v>
@@ -662,24 +537,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="3">
-        <v>49.0</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="3">
-        <v>49.0</v>
+      <c r="F10" s="3" t="n">
+        <v>49</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>14</v>
@@ -694,24 +569,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3">
-        <v>50.0</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="3">
-        <v>50.0</v>
+      <c r="F11" s="3" t="n">
+        <v>50</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>14</v>
@@ -726,24 +601,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3">
-        <v>51.0</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="3" t="n">
+        <v>51</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="3">
-        <v>51.0</v>
+      <c r="F12" s="3" t="n">
+        <v>51</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>14</v>
@@ -758,24 +633,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="3">
-        <v>52.0</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="3">
-        <v>52.0</v>
+      <c r="F13" s="3" t="n">
+        <v>52</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>14</v>
@@ -790,24 +665,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="3">
-        <v>53.0</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="3" t="n">
+        <v>53</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="3">
-        <v>53.0</v>
+      <c r="F14" s="3" t="n">
+        <v>53</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>14</v>
@@ -822,24 +697,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="3">
-        <v>54.0</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="3">
-        <v>54.0</v>
+      <c r="F15" s="3" t="n">
+        <v>54</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>14</v>
@@ -854,24 +729,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="3">
-        <v>55.0</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="3">
-        <v>55.0</v>
+      <c r="F16" s="3" t="n">
+        <v>55</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>14</v>
@@ -886,24 +761,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="3">
-        <v>56.0</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="3">
-        <v>56.0</v>
+      <c r="F17" s="3" t="n">
+        <v>56</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>14</v>
@@ -918,24 +793,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="3">
-        <v>57.0</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="C18" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="3">
-        <v>57.0</v>
+      <c r="F18" s="3" t="n">
+        <v>57</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>14</v>
@@ -950,24 +825,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="3">
-        <v>58.0</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="3">
-        <v>58.0</v>
+      <c r="F19" s="3" t="n">
+        <v>58</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>14</v>
@@ -982,24 +857,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="3">
-        <v>59.0</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="C20" s="3" t="n">
+        <v>59</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="3">
-        <v>59.0</v>
+      <c r="F20" s="3" t="n">
+        <v>59</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>14</v>
@@ -1014,24 +889,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="3">
-        <v>60.0</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="C21" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="3">
-        <v>60.0</v>
+      <c r="F21" s="3" t="n">
+        <v>60</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>14</v>
@@ -1046,24 +921,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="3">
-        <v>61.0</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="C22" s="3" t="n">
+        <v>61</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="3">
-        <v>61.0</v>
+      <c r="F22" s="3" t="n">
+        <v>61</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>14</v>
@@ -1078,24 +953,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="3">
-        <v>62.0</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="C23" s="3" t="n">
+        <v>62</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="3">
-        <v>62.0</v>
+      <c r="F23" s="3" t="n">
+        <v>62</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>14</v>
@@ -1110,24 +985,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="3">
-        <v>63.0</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="C24" s="3" t="n">
+        <v>63</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="3">
-        <v>63.0</v>
+      <c r="F24" s="3" t="n">
+        <v>63</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>14</v>
@@ -1142,24 +1017,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="3">
-        <v>64.0</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="C25" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="3">
-        <v>64.0</v>
+      <c r="F25" s="3" t="n">
+        <v>64</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>14</v>
@@ -1174,24 +1049,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="3">
-        <v>65.0</v>
-      </c>
-      <c r="D26" s="5" t="s">
+      <c r="C26" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="3">
-        <v>65.0</v>
+      <c r="F26" s="3" t="n">
+        <v>65</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>14</v>
@@ -1206,24 +1081,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="3">
-        <v>66.0</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="C27" s="3" t="n">
+        <v>66</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="3">
-        <v>66.0</v>
+      <c r="F27" s="3" t="n">
+        <v>66</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>14</v>
@@ -1238,24 +1113,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="3">
-        <v>67.0</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="C28" s="3" t="n">
+        <v>67</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="3">
-        <v>67.0</v>
+      <c r="F28" s="3" t="n">
+        <v>67</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>14</v>
@@ -1270,24 +1145,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="3">
-        <v>68.0</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="C29" s="3" t="n">
+        <v>68</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="3">
-        <v>68.0</v>
+      <c r="F29" s="3" t="n">
+        <v>68</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>14</v>
@@ -1302,24 +1177,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="3">
-        <v>69.0</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="C30" s="3" t="n">
+        <v>69</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="3">
-        <v>69.0</v>
+      <c r="F30" s="3" t="n">
+        <v>69</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>14</v>
@@ -1334,24 +1209,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="3">
-        <v>70.0</v>
-      </c>
-      <c r="D31" s="5" t="s">
+      <c r="C31" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="3">
-        <v>70.0</v>
+      <c r="F31" s="3" t="n">
+        <v>70</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>14</v>
@@ -1366,24 +1241,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="3">
-        <v>71.0</v>
-      </c>
-      <c r="D32" s="5" t="s">
+      <c r="C32" s="3" t="n">
+        <v>71</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="3">
-        <v>71.0</v>
+      <c r="F32" s="3" t="n">
+        <v>71</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>14</v>
@@ -1398,24 +1273,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="3">
-        <v>72.0</v>
-      </c>
-      <c r="D33" s="5" t="s">
+      <c r="C33" s="3" t="n">
+        <v>72</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="3">
-        <v>72.0</v>
+      <c r="F33" s="3" t="n">
+        <v>72</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>14</v>
@@ -1430,24 +1305,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="3">
-        <v>73.0</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="C34" s="3" t="n">
+        <v>73</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="3">
-        <v>73.0</v>
+      <c r="F34" s="3" t="n">
+        <v>73</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>14</v>
@@ -1462,24 +1337,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="3">
-        <v>74.0</v>
-      </c>
-      <c r="D35" s="5" t="s">
+      <c r="C35" s="3" t="n">
+        <v>74</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="3">
-        <v>74.0</v>
+      <c r="F35" s="3" t="n">
+        <v>74</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>14</v>
@@ -1494,24 +1369,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="3">
-        <v>75.0</v>
-      </c>
-      <c r="D36" s="5" t="s">
+      <c r="C36" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="3">
-        <v>75.0</v>
+      <c r="F36" s="3" t="n">
+        <v>75</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>14</v>
@@ -1526,24 +1401,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="3">
-        <v>76.0</v>
-      </c>
-      <c r="D37" s="5" t="s">
+      <c r="C37" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="3">
-        <v>76.0</v>
+      <c r="F37" s="3" t="n">
+        <v>76</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>14</v>
@@ -1558,24 +1433,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="3">
-        <v>77.0</v>
-      </c>
-      <c r="D38" s="5" t="s">
+      <c r="C38" s="3" t="n">
+        <v>77</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="3">
-        <v>77.0</v>
+      <c r="F38" s="3" t="n">
+        <v>77</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>14</v>
@@ -1590,24 +1465,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="3">
-        <v>78.0</v>
-      </c>
-      <c r="D39" s="5" t="s">
+      <c r="C39" s="3" t="n">
+        <v>78</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="3">
-        <v>78.0</v>
+      <c r="F39" s="3" t="n">
+        <v>78</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>14</v>
@@ -1622,24 +1497,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="3">
-        <v>79.0</v>
-      </c>
-      <c r="D40" s="5" t="s">
+      <c r="C40" s="3" t="n">
+        <v>79</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="3">
-        <v>79.0</v>
+      <c r="F40" s="3" t="n">
+        <v>79</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>14</v>
@@ -1654,24 +1529,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="3">
-        <v>80.0</v>
-      </c>
-      <c r="D41" s="5" t="s">
+      <c r="C41" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="3">
-        <v>80.0</v>
+      <c r="F41" s="3" t="n">
+        <v>80</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>14</v>
@@ -1687,6 +1562,12 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_11.13.19.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_11.13.19.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="18">
   <si>
     <t xml:space="preserve">rnaDate</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t xml:space="preserve">E7420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">random</t>
@@ -83,8 +80,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -172,7 +170,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -187,6 +185,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -208,8 +210,8 @@
   </sheetPr>
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6:H41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -290,11 +292,11 @@
       <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
+      <c r="I2" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -338,11 +340,11 @@
       <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
+      <c r="I3" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -370,11 +372,11 @@
       <c r="H4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
+      <c r="I4" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -402,11 +404,11 @@
       <c r="H5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>16</v>
+      <c r="I5" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -434,11 +436,11 @@
       <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>16</v>
+      <c r="I6" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -466,11 +468,11 @@
       <c r="H7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>16</v>
+      <c r="I7" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -498,11 +500,11 @@
       <c r="H8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>16</v>
+      <c r="I8" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -530,11 +532,11 @@
       <c r="H9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>16</v>
+      <c r="I9" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -562,11 +564,11 @@
       <c r="H10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>16</v>
+      <c r="I10" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -594,11 +596,11 @@
       <c r="H11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>16</v>
+      <c r="I11" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -626,11 +628,11 @@
       <c r="H12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>16</v>
+      <c r="I12" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -658,11 +660,11 @@
       <c r="H13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>16</v>
+      <c r="I13" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -690,11 +692,11 @@
       <c r="H14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>16</v>
+      <c r="I14" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -722,11 +724,11 @@
       <c r="H15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>16</v>
+      <c r="I15" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -754,11 +756,11 @@
       <c r="H16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>16</v>
+      <c r="I16" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -786,11 +788,11 @@
       <c r="H17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>16</v>
+      <c r="I17" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -818,11 +820,11 @@
       <c r="H18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>16</v>
+      <c r="I18" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -850,11 +852,11 @@
       <c r="H19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>16</v>
+      <c r="I19" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -882,11 +884,11 @@
       <c r="H20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>16</v>
+      <c r="I20" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -914,16 +916,16 @@
       <c r="H21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>16</v>
+      <c r="I21" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>11</v>
@@ -946,16 +948,16 @@
       <c r="H22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>16</v>
+      <c r="I22" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>11</v>
@@ -978,16 +980,16 @@
       <c r="H23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>16</v>
+      <c r="I23" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>11</v>
@@ -1010,16 +1012,16 @@
       <c r="H24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>16</v>
+      <c r="I24" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>11</v>
@@ -1042,16 +1044,16 @@
       <c r="H25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>16</v>
+      <c r="I25" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>11</v>
@@ -1074,16 +1076,16 @@
       <c r="H26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>16</v>
+      <c r="I26" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>11</v>
@@ -1106,16 +1108,16 @@
       <c r="H27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>16</v>
+      <c r="I27" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>11</v>
@@ -1138,16 +1140,16 @@
       <c r="H28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>16</v>
+      <c r="I28" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>11</v>
@@ -1170,16 +1172,16 @@
       <c r="H29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>16</v>
+      <c r="I29" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>11</v>
@@ -1202,16 +1204,16 @@
       <c r="H30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>16</v>
+      <c r="I30" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>11</v>
@@ -1234,16 +1236,16 @@
       <c r="H31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>16</v>
+      <c r="I31" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>11</v>
@@ -1266,16 +1268,16 @@
       <c r="H32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>16</v>
+      <c r="I32" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>11</v>
@@ -1298,16 +1300,16 @@
       <c r="H33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>16</v>
+      <c r="I33" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>11</v>
@@ -1330,16 +1332,16 @@
       <c r="H34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>16</v>
+      <c r="I34" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>11</v>
@@ -1362,16 +1364,16 @@
       <c r="H35" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>16</v>
+      <c r="I35" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>11</v>
@@ -1394,16 +1396,16 @@
       <c r="H36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>16</v>
+      <c r="I36" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>11</v>
@@ -1426,16 +1428,16 @@
       <c r="H37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>16</v>
+      <c r="I37" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>11</v>
@@ -1458,16 +1460,16 @@
       <c r="H38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>16</v>
+      <c r="I38" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>11</v>
@@ -1490,16 +1492,16 @@
       <c r="H39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>16</v>
+      <c r="I39" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>11</v>
@@ -1522,16 +1524,16 @@
       <c r="H40" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>16</v>
+      <c r="I40" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>11</v>
@@ -1554,11 +1556,11 @@
       <c r="H41" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I41" s="1" t="s">
-        <v>16</v>
+      <c r="I41" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_11.13.19.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_11.13.19.xlsx
@@ -64,7 +64,7 @@
     <t xml:space="preserve">J.PLAGGENBERG</t>
   </si>
   <si>
-    <t xml:space="preserve">NEBNextPoly(A)E7490</t>
+    <t xml:space="preserve">NEBNextPoly(A)E7490L</t>
   </si>
   <si>
     <t xml:space="preserve">E7420</t>
@@ -210,13 +210,15 @@
   </sheetPr>
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_11.13.19.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_11.13.19.xlsx
@@ -64,10 +64,10 @@
     <t xml:space="preserve">J.PLAGGENBERG</t>
   </si>
   <si>
-    <t xml:space="preserve">NEBNextPoly(A)E7490L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E7420</t>
+    <t xml:space="preserve">E7490L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E7420L</t>
   </si>
   <si>
     <t xml:space="preserve">random</t>
@@ -211,7 +211,7 @@
   <dimension ref="A1:Z41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G41"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -294,7 +294,8 @@
       <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="4" t="b">
+      <c r="I2" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -342,7 +343,8 @@
       <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="4" t="b">
+      <c r="I3" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -374,7 +376,8 @@
       <c r="H4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="4" t="b">
+      <c r="I4" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -406,7 +409,8 @@
       <c r="H5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="4" t="b">
+      <c r="I5" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -438,7 +442,8 @@
       <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="4" t="b">
+      <c r="I6" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -470,7 +475,8 @@
       <c r="H7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="4" t="b">
+      <c r="I7" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -502,7 +508,8 @@
       <c r="H8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="4" t="b">
+      <c r="I8" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -534,7 +541,8 @@
       <c r="H9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="4" t="b">
+      <c r="I9" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -566,7 +574,8 @@
       <c r="H10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="4" t="b">
+      <c r="I10" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -598,7 +607,8 @@
       <c r="H11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="4" t="b">
+      <c r="I11" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -630,7 +640,8 @@
       <c r="H12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="4" t="b">
+      <c r="I12" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -662,7 +673,8 @@
       <c r="H13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="4" t="b">
+      <c r="I13" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -694,7 +706,8 @@
       <c r="H14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="4" t="b">
+      <c r="I14" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -726,7 +739,8 @@
       <c r="H15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="4" t="b">
+      <c r="I15" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -758,7 +772,8 @@
       <c r="H16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="4" t="b">
+      <c r="I16" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -790,7 +805,8 @@
       <c r="H17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="4" t="b">
+      <c r="I17" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -822,7 +838,8 @@
       <c r="H18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="4" t="b">
+      <c r="I18" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -854,7 +871,8 @@
       <c r="H19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="4" t="b">
+      <c r="I19" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -886,7 +904,8 @@
       <c r="H20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="4" t="b">
+      <c r="I20" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
@@ -918,7 +937,8 @@
       <c r="H21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="4" t="b">
+      <c r="I21" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -950,7 +970,8 @@
       <c r="H22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="4" t="b">
+      <c r="I22" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -982,7 +1003,8 @@
       <c r="H23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="4" t="b">
+      <c r="I23" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
@@ -1014,7 +1036,8 @@
       <c r="H24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="4" t="b">
+      <c r="I24" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -1046,7 +1069,8 @@
       <c r="H25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="4" t="b">
+      <c r="I25" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
@@ -1078,7 +1102,8 @@
       <c r="H26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="4" t="b">
+      <c r="I26" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
@@ -1110,7 +1135,8 @@
       <c r="H27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="4" t="b">
+      <c r="I27" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
@@ -1142,7 +1168,8 @@
       <c r="H28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="4" t="b">
+      <c r="I28" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
@@ -1174,7 +1201,8 @@
       <c r="H29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="4" t="b">
+      <c r="I29" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
@@ -1206,7 +1234,8 @@
       <c r="H30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="4" t="b">
+      <c r="I30" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
@@ -1238,7 +1267,8 @@
       <c r="H31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="4" t="b">
+      <c r="I31" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
@@ -1270,7 +1300,8 @@
       <c r="H32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="4" t="b">
+      <c r="I32" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
@@ -1302,7 +1333,8 @@
       <c r="H33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="4" t="b">
+      <c r="I33" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
@@ -1334,7 +1366,8 @@
       <c r="H34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I34" s="4" t="b">
+      <c r="I34" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
@@ -1366,7 +1399,8 @@
       <c r="H35" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I35" s="4" t="b">
+      <c r="I35" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J35" s="1" t="s">
@@ -1398,7 +1432,8 @@
       <c r="H36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I36" s="4" t="b">
+      <c r="I36" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J36" s="1" t="s">
@@ -1430,7 +1465,8 @@
       <c r="H37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I37" s="4" t="b">
+      <c r="I37" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J37" s="1" t="s">
@@ -1462,7 +1498,8 @@
       <c r="H38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I38" s="4" t="b">
+      <c r="I38" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J38" s="1" t="s">
@@ -1494,7 +1531,8 @@
       <c r="H39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I39" s="4" t="b">
+      <c r="I39" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J39" s="1" t="s">
@@ -1526,7 +1564,8 @@
       <c r="H40" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I40" s="4" t="b">
+      <c r="I40" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J40" s="1" t="s">
@@ -1558,7 +1597,8 @@
       <c r="H41" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I41" s="4" t="b">
+      <c r="I41" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J41" s="1" t="s">

--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_11.13.19.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_11.13.19.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">polyAIsolationProtocol</t>
   </si>
   <si>
-    <t xml:space="preserve">s1Protocol</t>
+    <t xml:space="preserve">s1cDNAProtocol</t>
   </si>
   <si>
     <t xml:space="preserve">roboticS1Prep</t>
@@ -211,7 +211,7 @@
   <dimension ref="A1:Z41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H41"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_11.13.19.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_11.13.19.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaplaggenberg/Documents/rnaseq-database/s1cDNASample/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2441B989-BDCF-DD4E-A9D6-92454DE182A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21540" windowHeight="16980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -22,110 +27,90 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="18">
   <si>
-    <t xml:space="preserve">rnaDate</t>
+    <t>rnaDate</t>
   </si>
   <si>
-    <t xml:space="preserve">rnaPreparer</t>
+    <t>rnaPreparer</t>
   </si>
   <si>
-    <t xml:space="preserve">rnaSampleNumber</t>
+    <t>rnaSampleNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">s1cDNADate</t>
+    <t>s1cDNADate</t>
   </si>
   <si>
-    <t xml:space="preserve">s1cDNAPreparer</t>
+    <t>s1cDNAPreparer</t>
   </si>
   <si>
-    <t xml:space="preserve">s1cDNASampleNumber</t>
+    <t>s1cDNASampleNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">polyAIsolationProtocol</t>
+    <t>polyAIsolationProtocol</t>
   </si>
   <si>
-    <t xml:space="preserve">s1Protocol</t>
+    <t>s1Protocol</t>
   </si>
   <si>
-    <t xml:space="preserve">roboticS1Prep</t>
+    <t>roboticS1Prep</t>
   </si>
   <si>
-    <t xml:space="preserve">s1PrimerSeq</t>
+    <t>s1PrimerSeq</t>
   </si>
   <si>
-    <t xml:space="preserve">10.23.19</t>
+    <t>10.23.19</t>
   </si>
   <si>
-    <t xml:space="preserve">A.BOODRAM</t>
+    <t>A.BOODRAM</t>
   </si>
   <si>
-    <t xml:space="preserve">11.13.19</t>
+    <t>11.13.19</t>
   </si>
   <si>
-    <t xml:space="preserve">J.PLAGGENBERG</t>
+    <t>J.PLAGGENBERG</t>
   </si>
   <si>
-    <t xml:space="preserve">NEBNextPoly(A)E7490L</t>
+    <t>random</t>
   </si>
   <si>
-    <t xml:space="preserve">E7420</t>
+    <t>10.28.19</t>
   </si>
   <si>
-    <t xml:space="preserve">random</t>
+    <t>E7420L</t>
   </si>
   <si>
-    <t xml:space="preserve">10.28.19</t>
+    <t>E7490L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,7 +122,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -145,83 +130,345 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="14.43"/>
+    <col min="1" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="1025" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -269,14 +516,14 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="3">
         <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -285,20 +532,20 @@
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="3">
         <v>41</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -317,14 +564,14 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="3">
         <v>42</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -333,30 +580,30 @@
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="3">
         <v>42</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="3">
         <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -365,30 +612,30 @@
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="3">
         <v>43</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="3">
         <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -397,30 +644,30 @@
       <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="3">
         <v>44</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I5" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="3">
         <v>45</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -429,30 +676,30 @@
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="3">
         <v>45</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I6" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="3">
         <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -461,30 +708,30 @@
       <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="3">
         <v>46</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I7" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="3">
         <v>47</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -493,30 +740,30 @@
       <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="3">
         <v>47</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I8" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="3">
         <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -525,30 +772,30 @@
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="3">
         <v>48</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I9" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="3">
         <v>49</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -557,30 +804,30 @@
       <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="3">
         <v>49</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I10" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="3">
         <v>50</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -589,30 +836,30 @@
       <c r="E11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="3">
         <v>50</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I11" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="3">
         <v>51</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -621,30 +868,30 @@
       <c r="E12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="3">
         <v>51</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I12" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="3">
         <v>52</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -653,30 +900,30 @@
       <c r="E13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="3">
         <v>52</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I13" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C14" s="3">
         <v>53</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -685,30 +932,30 @@
       <c r="E14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="3" t="n">
+      <c r="F14" s="3">
         <v>53</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I14" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="3" t="n">
+      <c r="C15" s="3">
         <v>54</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -717,30 +964,30 @@
       <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="F15" s="3">
         <v>54</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I15" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="3" t="n">
+      <c r="C16" s="3">
         <v>55</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -749,30 +996,30 @@
       <c r="E16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F16" s="3">
         <v>55</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I16" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="C17" s="3">
         <v>56</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -781,30 +1028,30 @@
       <c r="E17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="3" t="n">
+      <c r="F17" s="3">
         <v>56</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I17" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="3" t="n">
+      <c r="C18" s="3">
         <v>57</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -813,30 +1060,30 @@
       <c r="E18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="3" t="n">
+      <c r="F18" s="3">
         <v>57</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I18" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="3" t="n">
+      <c r="C19" s="3">
         <v>58</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -845,30 +1092,30 @@
       <c r="E19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="3" t="n">
+      <c r="F19" s="3">
         <v>58</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I19" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="3" t="n">
+      <c r="C20" s="3">
         <v>59</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -877,30 +1124,30 @@
       <c r="E20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="3" t="n">
+      <c r="F20" s="3">
         <v>59</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I20" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="3" t="n">
+      <c r="C21" s="3">
         <v>60</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -909,30 +1156,30 @@
       <c r="E21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="3" t="n">
+      <c r="F21" s="3">
         <v>60</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I21" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="3" t="n">
+      <c r="C22" s="3">
         <v>61</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -941,30 +1188,30 @@
       <c r="E22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="3" t="n">
+      <c r="F22" s="3">
         <v>61</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I22" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="3" t="n">
+      <c r="C23" s="3">
         <v>62</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -973,30 +1220,30 @@
       <c r="E23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="3" t="n">
+      <c r="F23" s="3">
         <v>62</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I23" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="3" t="n">
+      <c r="C24" s="3">
         <v>63</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1005,30 +1252,30 @@
       <c r="E24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="3" t="n">
+      <c r="F24" s="3">
         <v>63</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I24" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="3" t="n">
+      <c r="C25" s="3">
         <v>64</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -1037,30 +1284,30 @@
       <c r="E25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="3" t="n">
+      <c r="F25" s="3">
         <v>64</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I25" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="3" t="n">
+      <c r="C26" s="3">
         <v>65</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1069,30 +1316,30 @@
       <c r="E26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="3" t="n">
+      <c r="F26" s="3">
         <v>65</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I26" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="3" t="n">
+      <c r="C27" s="3">
         <v>66</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -1101,30 +1348,30 @@
       <c r="E27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="3" t="n">
+      <c r="F27" s="3">
         <v>66</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I27" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="3" t="n">
+      <c r="C28" s="3">
         <v>67</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -1133,30 +1380,30 @@
       <c r="E28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="3" t="n">
+      <c r="F28" s="3">
         <v>67</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I28" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="3" t="n">
+      <c r="C29" s="3">
         <v>68</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -1165,30 +1412,30 @@
       <c r="E29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="3" t="n">
+      <c r="F29" s="3">
         <v>68</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I29" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="3" t="n">
+      <c r="C30" s="3">
         <v>69</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1197,30 +1444,30 @@
       <c r="E30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="3" t="n">
+      <c r="F30" s="3">
         <v>69</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I30" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="3" t="n">
+      <c r="C31" s="3">
         <v>70</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -1229,30 +1476,30 @@
       <c r="E31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="3" t="n">
+      <c r="F31" s="3">
         <v>70</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I31" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="3" t="n">
+      <c r="C32" s="3">
         <v>71</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -1261,30 +1508,30 @@
       <c r="E32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="3" t="n">
+      <c r="F32" s="3">
         <v>71</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I32" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="3" t="n">
+      <c r="C33" s="3">
         <v>72</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -1293,30 +1540,30 @@
       <c r="E33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="3" t="n">
+      <c r="F33" s="3">
         <v>72</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I33" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="3" t="n">
+      <c r="C34" s="3">
         <v>73</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -1325,30 +1572,30 @@
       <c r="E34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="3" t="n">
+      <c r="F34" s="3">
         <v>73</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I34" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="3" t="n">
+      <c r="C35" s="3">
         <v>74</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -1357,30 +1604,30 @@
       <c r="E35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="3" t="n">
+      <c r="F35" s="3">
         <v>74</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I35" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="3" t="n">
+      <c r="C36" s="3">
         <v>75</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -1389,30 +1636,30 @@
       <c r="E36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="3" t="n">
+      <c r="F36" s="3">
         <v>75</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I36" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="3" t="n">
+      <c r="C37" s="3">
         <v>76</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -1421,30 +1668,30 @@
       <c r="E37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="3" t="n">
+      <c r="F37" s="3">
         <v>76</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I37" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="3" t="n">
+      <c r="C38" s="3">
         <v>77</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -1453,30 +1700,30 @@
       <c r="E38" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="3" t="n">
+      <c r="F38" s="3">
         <v>77</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I38" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="3" t="n">
+      <c r="C39" s="3">
         <v>78</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -1485,30 +1732,30 @@
       <c r="E39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="3" t="n">
+      <c r="F39" s="3">
         <v>78</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I39" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="3" t="n">
+      <c r="C40" s="3">
         <v>79</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -1517,30 +1764,30 @@
       <c r="E40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="3" t="n">
+      <c r="F40" s="3">
         <v>79</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I40" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="3" t="n">
+      <c r="C41" s="3">
         <v>80</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -1549,29 +1796,24 @@
       <c r="E41" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="3" t="n">
+      <c r="F41" s="3">
         <v>80</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I41" s="4" t="b">
         <v>0</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_11.13.19.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_11.13.19.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaplaggenberg/Documents/rnaseq-database/s1cDNASample/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2441B989-BDCF-DD4E-A9D6-92454DE182A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21540" windowHeight="16980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -27,90 +22,117 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="18">
   <si>
-    <t>rnaDate</t>
-  </si>
-  <si>
-    <t>rnaPreparer</t>
-  </si>
-  <si>
-    <t>rnaSampleNumber</t>
-  </si>
-  <si>
-    <t>s1cDNADate</t>
-  </si>
-  <si>
-    <t>s1cDNAPreparer</t>
-  </si>
-  <si>
-    <t>s1cDNASampleNumber</t>
-  </si>
-  <si>
-    <t>polyAIsolationProtocol</t>
-  </si>
-  <si>
-    <t>s1Protocol</t>
-  </si>
-  <si>
-    <t>roboticS1Prep</t>
-  </si>
-  <si>
-    <t>s1PrimerSeq</t>
-  </si>
-  <si>
-    <t>10.23.19</t>
-  </si>
-  <si>
-    <t>A.BOODRAM</t>
-  </si>
-  <si>
-    <t>11.13.19</t>
-  </si>
-  <si>
-    <t>J.PLAGGENBERG</t>
-  </si>
-  <si>
-    <t>random</t>
-  </si>
-  <si>
-    <t>10.28.19</t>
-  </si>
-  <si>
-    <t>E7420L</t>
-  </si>
-  <si>
-    <t>E7490L</t>
+    <t xml:space="preserve">rnaDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rnaPreparer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rnaSampleNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1cDNADate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1cDNAPreparer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1cDNASampleNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polyAIsolationProtocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1cDNAProtocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roboticS1Prep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1PrimerSeq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.23.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.BOODRAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.13.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J.PLAGGENBERG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E7490L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E7420L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">random</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.28.19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,7 +144,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -130,345 +152,87 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+  <cellXfs count="6">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="1025" width="14.5" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="14.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,7 +254,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -516,36 +280,37 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="n">
         <v>41</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4" t="n">
         <v>41</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="4" t="b">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -564,14 +329,14 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4" t="n">
         <v>42</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -580,30 +345,31 @@
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4" t="n">
         <v>42</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="4" t="b">
+        <v>15</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4" t="n">
         <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -612,30 +378,31 @@
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4" t="n">
         <v>43</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="4" t="b">
+        <v>15</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4" t="n">
         <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -644,30 +411,31 @@
       <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4" t="n">
         <v>44</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="4" t="b">
+        <v>15</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4" t="n">
         <v>45</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -676,30 +444,31 @@
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4" t="n">
         <v>45</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="4" t="b">
+        <v>15</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4" t="n">
         <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -708,30 +477,31 @@
       <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4" t="n">
         <v>46</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="4" t="b">
+        <v>15</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4" t="n">
         <v>47</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -740,30 +510,31 @@
       <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4" t="n">
         <v>47</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="4" t="b">
+        <v>15</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4" t="n">
         <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -772,30 +543,31 @@
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4" t="n">
         <v>48</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="4" t="b">
+        <v>15</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4" t="n">
         <v>49</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -804,30 +576,31 @@
       <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4" t="n">
         <v>49</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="4" t="b">
+        <v>15</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4" t="n">
         <v>50</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -836,30 +609,31 @@
       <c r="E11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="4" t="n">
         <v>50</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="4" t="b">
+        <v>15</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4" t="n">
         <v>51</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -868,30 +642,31 @@
       <c r="E12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="4" t="n">
         <v>51</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="4" t="b">
+        <v>15</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4" t="n">
         <v>52</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -900,30 +675,31 @@
       <c r="E13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="4" t="n">
         <v>52</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="4" t="b">
+        <v>15</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="4" t="n">
         <v>53</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -932,30 +708,31 @@
       <c r="E14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="4" t="n">
         <v>53</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="4" t="b">
+        <v>15</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="4" t="n">
         <v>54</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -964,30 +741,31 @@
       <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="4" t="n">
         <v>54</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="4" t="b">
+        <v>15</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="4" t="n">
         <v>55</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -996,30 +774,31 @@
       <c r="E16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="4" t="n">
         <v>55</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="4" t="b">
+        <v>15</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="4" t="n">
         <v>56</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1028,30 +807,31 @@
       <c r="E17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="4" t="n">
         <v>56</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="4" t="b">
+        <v>15</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="4" t="n">
         <v>57</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -1060,30 +840,31 @@
       <c r="E18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="4" t="n">
         <v>57</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="4" t="b">
+        <v>15</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="4" t="n">
         <v>58</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1092,30 +873,31 @@
       <c r="E19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="4" t="n">
         <v>58</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="4" t="b">
+        <v>15</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="4" t="n">
         <v>59</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1124,30 +906,31 @@
       <c r="E20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="4" t="n">
         <v>59</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="4" t="b">
+        <v>15</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="4" t="n">
         <v>60</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1156,30 +939,31 @@
       <c r="E21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="4" t="n">
         <v>60</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="4" t="b">
+        <v>15</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="4" t="n">
         <v>61</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1188,30 +972,31 @@
       <c r="E22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="4" t="n">
         <v>61</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="4" t="b">
+        <v>15</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="4" t="n">
         <v>62</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -1220,30 +1005,31 @@
       <c r="E23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="4" t="n">
         <v>62</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="4" t="b">
+        <v>15</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="4" t="n">
         <v>63</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1252,30 +1038,31 @@
       <c r="E24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="4" t="n">
         <v>63</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="4" t="b">
+        <v>15</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="4" t="n">
         <v>64</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -1284,30 +1071,31 @@
       <c r="E25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="4" t="n">
         <v>64</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="4" t="b">
+        <v>15</v>
+      </c>
+      <c r="I25" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="4" t="n">
         <v>65</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1316,30 +1104,31 @@
       <c r="E26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="4" t="n">
         <v>65</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="4" t="b">
+        <v>15</v>
+      </c>
+      <c r="I26" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="4" t="n">
         <v>66</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -1348,30 +1137,31 @@
       <c r="E27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="4" t="n">
         <v>66</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="4" t="b">
+        <v>15</v>
+      </c>
+      <c r="I27" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="4" t="n">
         <v>67</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -1380,30 +1170,31 @@
       <c r="E28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="4" t="n">
         <v>67</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="4" t="b">
+        <v>15</v>
+      </c>
+      <c r="I28" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="4" t="n">
         <v>68</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -1412,30 +1203,31 @@
       <c r="E29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="4" t="n">
         <v>68</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="4" t="b">
+        <v>15</v>
+      </c>
+      <c r="I29" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="4" t="n">
         <v>69</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1444,30 +1236,31 @@
       <c r="E30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="4" t="n">
         <v>69</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="4" t="b">
+        <v>15</v>
+      </c>
+      <c r="I30" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="4" t="n">
         <v>70</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -1476,30 +1269,31 @@
       <c r="E31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="4" t="n">
         <v>70</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="4" t="b">
+        <v>15</v>
+      </c>
+      <c r="I31" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="4" t="n">
         <v>71</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -1508,30 +1302,31 @@
       <c r="E32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="4" t="n">
         <v>71</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="4" t="b">
+        <v>15</v>
+      </c>
+      <c r="I32" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="4" t="n">
         <v>72</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -1540,30 +1335,31 @@
       <c r="E33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="4" t="n">
         <v>72</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="4" t="b">
+        <v>15</v>
+      </c>
+      <c r="I33" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="4" t="n">
         <v>73</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -1572,30 +1368,31 @@
       <c r="E34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="4" t="n">
         <v>73</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="4" t="b">
+        <v>15</v>
+      </c>
+      <c r="I34" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="4" t="n">
         <v>74</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -1604,30 +1401,31 @@
       <c r="E35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="4" t="n">
         <v>74</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="4" t="b">
+        <v>15</v>
+      </c>
+      <c r="I35" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="4" t="n">
         <v>75</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -1636,30 +1434,31 @@
       <c r="E36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="4" t="n">
         <v>75</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I36" s="4" t="b">
+        <v>15</v>
+      </c>
+      <c r="I36" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="4" t="n">
         <v>76</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -1668,30 +1467,31 @@
       <c r="E37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="4" t="n">
         <v>76</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" s="4" t="b">
+        <v>15</v>
+      </c>
+      <c r="I37" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="4" t="n">
         <v>77</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -1700,30 +1500,31 @@
       <c r="E38" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="4" t="n">
         <v>77</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="4" t="b">
+        <v>15</v>
+      </c>
+      <c r="I38" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="4" t="n">
         <v>78</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -1732,30 +1533,31 @@
       <c r="E39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="4" t="n">
         <v>78</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" s="4" t="b">
+        <v>15</v>
+      </c>
+      <c r="I39" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="4" t="n">
         <v>79</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -1764,30 +1566,31 @@
       <c r="E40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="4" t="n">
         <v>79</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" s="4" t="b">
+        <v>15</v>
+      </c>
+      <c r="I40" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="4" t="n">
         <v>80</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -1796,24 +1599,30 @@
       <c r="E41" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="4" t="n">
         <v>80</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" s="4" t="b">
+        <v>15</v>
+      </c>
+      <c r="I41" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>